--- a/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type1/pd_results_W5_H50_B16.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type1/pd_results_W5_H50_B16.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5487804878048781</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
+        <v>0.552870090634441</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9836065573770492</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5438066465256798</v>
+        <v>0.552870090634441</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7045009784735812</v>
+        <v>0.7120622568093384</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5075528700906344</v>
+        <v>0.4894259818731118</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1048705018858469</v>
+        <v>0.07303593737128623</v>
       </c>
       <c r="J2" t="n">
-        <v>1380.798640752672</v>
+        <v>913.2840594678005</v>
       </c>
       <c r="K2" t="n">
-        <v>2720174.637464033</v>
+        <v>1082268.533153704</v>
       </c>
       <c r="L2" t="n">
-        <v>1649.29519415538</v>
+        <v>1040.32136051977</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4914812743459358</v>
+        <v>0.7976770286308164</v>
       </c>
     </row>
   </sheetData>
